--- a/500all/speech_level/speeches_CHRG-114hhrg93889.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93889.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Weber. Subcommittee on Energy will come to order. Without objection, the Chair is authorized to declare recesses of this Subcommittee at any time.    Welcome to today's hearing titled ``Department of Energy Oversight: Office of Energy Efficiency and Renewable Energy.''    I recognize myself for five minutes for an opening statement.    Good afternoon, and as I have already said, welcome to today's Energy Subcommittee hearing. We are going to examine the Department of Energy's Office of Energy Efficiency and Renewable Energy, or EERE. Today, we will hear from the Department and a broad panel of expert witnesses on the value of the research, development, demonstration, and commercialization activities in EERE, and the impact DOE's clean energy programs have on the energy market and the United States economy.    EERE is the lead federal agency for clean energy research and development, with programs in transportation, renewable energy, and energy efficiency. This office is clearly a top priority for the Obama Administration, with this year's budget request coming in at $2.7 billion, which is an increase of over $800 million from enacted levels. That is a whopping 42 percent increase in one year. With our national debt at $18 trillion and rising, and mandatory spending caps guiding budgets on everything from energy to national defense, this kind of spending obviously deserves rigorous oversight from Congress. It is clear that EERE's budget is simply unaffordable. While every other federal program has had to adjust to spending caps and work within modest spending goals, EERE's budget has continued to increase. Despite a budget that has already grown by 58 percent in the last decade, and received over $16 billion, with a B, in stimulus funds, the Obama Administration continues to request more year after year. It is time to adjust EERE's budget to reality. By continuing to grow EERE spending, the Department of Energy's approach to energy research and development has also become more and more unbalanced. EERE's budget dwarfs that of the other applied offices at DOE. The $2.7 billion budget request for fiscal year 2016 is more than four times the budget request for fossil energy R&amp;D, five times the request for nuclear energy R&amp;D, and 16 times the request for electricity and energy reliability R&amp;D. In fact, the proposed budget for EERE is more than double the budgets for nuclear, fossil, and electricity R&amp;D combined.    Finally, the work prioritized by EERE is far too focused on increasing the use of today's technology, not conducting the fundamental research to lay the foundation for the next technology breakthrough. Many EERE programs are focused on reducing market barriers for existing technology or funding R&amp;D activities already prioritized by the private sector. For example, in EERE's Vehicle Technologies program, $40 million is requested for ``cost-share projects within--with industry'' within the ``SuperTruck 2'' initiative. Funding for SuperTruck 2 is intended to improve the hauling efficiency of heavy-duty, Class 8 long-haul vehicles by 100 percent by the year 2020. But the freight industry and auto manufacturers, both billion dollar industries, already have the means and motivation to develop innovative technology to increase energy efficiency. Investing in technology to decrease costs is just good business sense, and American industry does this every day, with or without federal funds. And I might add, on the trucking freight business, I used to do some freight hauling as one of my businesses. Unless you can decrease the weight of a pound, we are in for a long wait.    Instead of duplicating work that could be done in the private sector, the Department should prioritize basic research and development with broad application to all forms of energy, and energy efficiency. Models developed in the Office of Science's ASCR program, the subject of an Energy Subcommittee hearing earlier this year, can be used to study and improve techniques in manufacturing, renewable power, and energy efficiency, enabling the private sector to develop and bring new technology into the market without American tax dollars.    I want to thank Assistant Secretary Danielson and all our witnesses for testifying to the Committee today, and I look forward to a review of EERE's programs and a discussion about the impact DOE's clean energy programs have on the economy. As some of our witnesses will point out today, subsidizing one form of energy over another through federal programs is damaging to the energy market, it increases costs for the American people, and actually is often counterproductive to new the technology development. Investment in the next generation of energy technology must be balanced, technology-neutral, and responsible. By funding basic research and development, the Department of Energy could build a foundation for the private sector to bring new innovative technologies to market, and to grow the American economy.    With that, I yield back. And, Mr. Grayson, you are recognized.</t>
   </si>
   <si>
     <t>412276</t>
   </si>
   <si>
-    <t>Alan Grayson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grayson. Thank you, Chairman Weber, for holding this hearing. And thank you to our witnesses for appearing here today.    America is mired in a long-term negative energy trade balance. According to the most recent figures from the Energy Information Administration, our energy trade deficit as of the fourth quarter of 2013 was $203 billion, and it has been that way literally for decades. We must import to make up the difference, and the question is how much longer are we going to be able to spend our fortune that way.    Every year for the past two generations, energy imports have cost us hundreds of billions of dollars. Unfortunately, there are also massive hidden costs that aren't reflected in the prices that Americans actually pay for energy. One recent study estimates that the United States has spent about $8 trillion from 1976 through 2010, merely defending access to oil supplies in the Persian Gulf, not producing, not acquiring, not even transporting, but simply defending our access to oil. That is $25,000 for every man, woman and child in America. Continuing to pursue a business-as-usual energy policy clearly costs not only American dollars, but also American lives. We can't just drill our way out of that problem.    Because the price of oil is set globally, a disruption of oil from the Middle East could severely spike U.S. oil prices no matter how much of it we are able to pull from our own ground. That is why reducing dependence on oil, and not just foreign oil, is a key strategic objective for both the United States economy and the U.S. Military. We can and we must end this strategic energy deficit. We can create a domestic energy infrastructure that is reliable, resilient and far less dependent on volatile regions around the world.    Towards these ends, the Department of Energy's Office of Energy Efficiency and Renewable Energy, which we are here to talk about today, helps to make that future come faster. Their sustainable transportation technology program focuses on improving energy efficiency in vehicles, and developing new alternative fuels from domestic resources. Research investments made by this program have reduced electric vehicle battery costs by 70 percent since 2008. They have also reduced the manufacturing costs for automotive fuel cells by more than 50 percent just since 2006. Research and development in biofuels has helped to reduce the production cost of cellulosic ethanol by more than $6 a gallon, to around $3.20 per gallon today, making it cost-competitive with gasoline.    Beyond reducing our dependence on oil, these programs improve energy efficiency in buildings and appliances, and they are providing major economic and environmental benefits to U.S. taxpayers as well. Efficiency standards enacted by the Department of Energy since 2009 are projected to save consumers hundreds of billions of dollars in their utility bills through 2030, and this agency-supported research in advanced lighting technology has helped to reduce LED costs by 90 percent since 2008. The renewable energy sector has also benefitted immensely from the agency-supported research and development. Since 2010, photovoltaic systems costs have been cut in half. DOE's SunShot Program, which has the goal of making solar energy costs competitive with conventional sources by 2020, is already more than 60 percent of the way to achieving that cost target. Overall, third party evaluators outside of the government estimate that from 1976 to 2008, these investments of $15 billion have resulted in an estimated economic benefit to the United States of $388 billion, a net return of more than 24 to 1. That is a very impressive track record, whether it is in government or in business, and it is one that we should continue to support.    Private investors in the energy sector are beginning to move from project-level loans to holding company loans, which means renewable energy industries may be starting at long last to take off. This development is encouraging, but we must realize that there is no Exxon Mobil, or for that matter, an Intel or a Pfizer in the renewable energy sector. There is no one with the capability to spend billions on research that the government is spending now. There remains a unique government role in supporting the advancement of new technologies at a sufficient pace to meet our national economic, environmental and energy security needs. And that is why I look forward to this hearing to hear more about that today.    The results from this agency's programs are tangible. They are having a direct positive impact on peoples' lives and, therefore, I want to thank Dr. Danielson and his office for their productive work, and for the information that they provide for us here today. And thank you again, Mr. Chairman.    And with that, I yield the balance of my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman.    Today, the Subcommittee on Energy will examine the Department of Energy's Office of Energy Efficiency and Renewable Energy, commonly referred to as EERE. The Department describes EERE as, ``The U.S. Government's primary clean energy technology organization.'' EERE's goals sound worthy enough. It seeks to reduce the use of fossil fuels, lower emissions, and speed up the adoption and decrease the cost of clean energy technology in transportation, renewable power and energy efficiency. However, while the EERE is billed as leading clean energy research and development, there are fundamental concerns with EERE's approach to advancing energy technology. EERE's activities demonstrate that it is heavily invested in forcing the Administration's preferred technology on the American people. When the government picks winners and losers in the energy technology marketplace, the American people pay the price.    The Solar Energy Technologies Program within EERE offers a ready example. This program's goal is to reduce the cost of solar power until they are cost-competitive with electricity from fossil fuels. It aims to achieve this goal by 2020. But because the program is focused on cost, not technology, EERE spends taxpayer dollars to market and deploy existing solar technology. Instead of research on the fundamental science behind solar energy, or development of new solar technology, EERE spends taxpayer dollars on ``permitting, financing, and customer acquisition.'' It essentially puts promoting energy companies over research and development. Addressing these issues may help the solar industry market their product, but that is short-sighted and doesn't really make solar energy more competitive in the long term.    The Department of Energy should perform groundbreaking scientific research and develop on new technologies, not spend American tax dollars to promote what is already commercially available. The federal government should invest in basic research that could open the door for widespread use of solar and other renewable energy technology in the future. For example, energy storage research and development at the Joint Center for Energy Storage Research hub in the Office of Science explores new energy storage possibilities through basic scientific research. This energy storage research could have a groundbreaking impact not just on the solar industry, but also on all forms of energy.    The President's budget proposal for EERE includes a 42 percent, or $809 million, increase in spending. This is almost three times the requested increase for the Office of Science. In Congress, we have the responsibility to ensure the efficient and effective use of American tax dollars. We can't afford to impose expensive and inefficient technology on the energy market. We do not have unlimited resources, so we will have to make choices about where to make the best investment for the American people. By investing in basic research that benefits all forms of energy, we can make energy less expensive, and that benefits consumers and helps the United States achieve energy independence.</t>
   </si>
   <si>
@@ -91,27 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Danielson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Danielson. Thank you, Chairman. Chairman Smith, Chairman Weber, Ranking Member Grayson, and distinguished Members of the Subcommittee, thank you for the opportunity to appear before you today to discuss the Office of Energy Efficiency and Renewable Energy, EERE, at the U.S. Department of Energy.    EERE supports cutting-edge American innovation to dramatically reduce U.S. reliance on foreign oil, cut energy costs for American families and businesses, avoid the damaging economic and health impacts of energy-related pollution, and enable the U.S. private sector to create good-paying American jobs through innovation. EERE's efforts in three critical energy sectors--sustainable transportation, renewable power, and energy efficiency--supportthe research, development and demonstration activities that are needed to make clean energy technologies directly cost-competitive without subsidies.    While clean energy markets grew to approximately $300 billion globally last year, with trillions more in market opportunity in the years ahead, the energy industry significantly underinvested in R&amp;D compared to other industries. The strategic importance of energy to American economic growth and security means that government has a necessary and needed role to make the appropriate investments in cutting-edge energy innovation to seize this clean energy opportunity.    My experience as an MIT-trained scientist and engineer, a venture capitalist in the energy sector, and as one of the founders of ARPA-E, has given me unique insights into what is required for the U.S. energy innovation ecosystem to be successful. From this experience, I have developed five core questions that serve as the guiding principles by which EERE prioritizes its investments in energy innovation. These questions include the following. One: Impact. Is this a high-impact problem? Two: Additionality. Will EERE funding make a large difference relative to investments being made by the private sector? Three: Openness. Are we open to new ideas, and the most promising new energy innovations? Four: Economic benefit. Will EERE funding result in enduring U.S. economic impact? And five: Proper role of government. Is this investment a proper role of government, or something best left to the private sector to do on its own?    EERE has shown that smart, targeted investments in clean energy innovation can have a healthy return on investment for taxpayers. As just one example of many, over a 30-year period, EERE funded R&amp;D on advanced combustion engines resulted in a net benefit of about $70 billion, representing a benefit-to-cost ratio of 53 to 1, at a seven percent discount rate.    In terms of our fiscal year 2016 budget request, in fiscal year 2016, EERE is requesting from Congress $2.7 billion across our three sectors to continue these successes, and to enable the United States to remain a global leader in innovative new clean energy technologies. The $793 million request for our sustainable transportation portfolio would help consumers and businesses use less energy to move business and freight, and replace conventional fuels with cost-competitive, domestically-produced, sustainable alternative fuels. And we are making significant progress. In 2014, the five-year SuperTruck program exceeded its goal of developing a suite of cutting-edge new long-haul trucking technologies to enable a 50 percent improvement in freight efficiency one year ahead of schedule. Our fiscal year 2016 budget request will enable EERE to continue our focus on cutting-edge R&amp;D, and advanced combustion and lightweight vehicles, developing new technologies that can diversify our fuel mix with drop-in biofuels, and enabling plug-in electric and fuel cell vehicles to become cost-competitive.    In our renewable power portfolio, EERE's request of $645 million will build on our R&amp;D goal to enable the a development of multiple cost-effective renewable power technology options for every region of the country to diversify our power sector. Our fiscal year 2016 request will continue our SunShot Initiative's progress in making solar energy directly cost-competitive by 2020. Our request will also support the Frontier Observatory for Research in Geothermal Energy, or FORGE, a first-of-a-kind field laboratory, to address the key R&amp;D challenges required to enable cost-effective advanced geothermal power, in addition to continued R&amp;D efforts to reduce the cost of wind power, marine and hydrokinetic power, and hydropower.    Finally, in our energy efficiency portfolio, EERE's request of $1.03 billion emphasizes cutting-edge R&amp;D and next-generation efficient building technologies, including high-efficiency, low-cost heating and cooling technologies. We will also increase support for next-generation manufacturing R&amp;D to lower energy costs for American manufacturers, and create American leadership in the next generation of emerging energy-related advanced manufacturing technologies.    As just one example of these advanced manufacturing technology R&amp;D investments, in January we launched the Institute for Advanced Composites Manufacturing Innovation, a public-private consortium of 122 leading U.S. manufacturers and research organizations that will focus on advanced composites, foundational materials that are three times as strong and twice as light as the lightest metals.    As EERE invests in high-impact research, development and demonstration programs to make clean energy solutions more affordable, accessible, and reliable, we remain fiercely committed to being a good steward of taxpayer investments. Over the past two years, EERE has implemented a new active project management approach under which we hold all of our projects accountable to annual go/no-go milestones, and under which we are more aggressively discontinuing projects that are not achieving key milestones to protect taxpayer interests.    In closing, EERE looks forward to working with this Committee to make necessary and appropriate investments in clean energy innovation, to continue to make our organization effective and accountable to Congress and to taxpayers, and to ensure that the United States wins the global clean energy race.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Dr. Danielson.    Mr. Loris, you are recognized for five minutes.</t>
   </si>
   <si>
-    <t>Loris</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loris. Thank you. Chairman Weber, Ranking Member Grayson, and distinguished Members of the Subcommittee, thank you for this opportunity to discuss the Department of Energy's Office of Energy Efficiency and Renewable Energy.    My name is Nick Loris, and I am the Herbert and Joyce Morgan Fellow at the Heritage Foundation. The views I express in this testimony are my own, and should not be construed as representing any official position of the Heritage Foundation.    Often overlooked in the criticism of policies that pick winners and losers in energy markets is the proper scrutiny of all the spending programs within EERE. The given logic for many of these initiatives is that a gap exists between basic research and economic viability, and thus, more taxpayer dollars must be spent to attract private investment. The reality though is that the market demand for transportation fuel and electricity are incentive enough to spur competition and innovative breakthroughs. Globally, these are multitrillion dollar markets. If any renewable technology captures a mere slice of that market, it would stand to make billions, if not tens of billions of dollars in profit annually. Breaking into this market is not a problem of the so-called valley of death where good ideas are unable to attract substantial investment. It is a valley of wealth waiting to be had.    The objectives of this office may be laudable, but it is simply not the role of the Federal Government to reduce cost and lower risk. When the government attempts to drive commercialization, it circumvents the competitive process that appropriately assigns risk and reward, and disregards how markets efficiently allocate resources. Take, for instance, the bioenergy technologies program that aims to make advanced biofuels cost-competitive with conventional gasoline at $3 per gallon. Why is that an objective in the first place, and how does the government know that $3 will be the magic price point at which alternative fuels become competitive? As we all know, markets are very unpredictable. And even if somehow $3 does change the market for alternative fuels, businesses are much better equipped and flexible to deal with the changing economic circumstances. Most importantly, the private sector should be responsible for taking on that risk and innovating to lower costs.    The same holds true for the electricity sector. For instance, the budget justification for the SunShot initiative states a goal of reducing the price for utility scale solar to 6 cents per kilowatt hour without subsidies, and that will result in rapid, large-scale adoption of solar across the United States. The problem is that the SunShot initiative in and of itself is a huge government subsidy by spending hundreds of millions of taxpayer dollars to reduce the cost of solar. And if 6 cents per kilowatt hour results in rapid solar deployment, that is great, but that should be a business decision. Government has no business trying to make projects cost-competitive or improving a technology's reliability to make it more enticing for private financiers. Furthermore, the government is not very good at it, compared to those industries that actually have skin in the game. How many times have we heard from the DOE that an economically viable alternative energy source was just around the corner, and decades later and billions of taxpayer dollars squandered, the technology is still just around that corner.    Another goal for this office is improving energy efficiency. Programs like the Advanced Manufacturing Office sound nice and like an easy sell to constituents, but manufacturers already know that energy is a significant cost, and will find ways to reduce energy consumption in order to gain a competitive advantage. Companies will make these investments if they believe the technology is promising, worth the risk, and the best use of their investment dollars.    Instead, the Advanced Manufacturing Office provides nothing more than corporate welfare. For instance, past grant recipients have been some of the world's largest companies and massive energy users, including GE, Dow Chemical, and Boeing. These are not companies that need help from the taxpayer.    Now, when it comes to energy efficiency, one area that makes more sense as a government function is to reduce energy use within the federal government. The government as an energy consumer does not face the same incentive structure, nor do they always weigh trade-offs like families and businesses do. But the Federal Energy Management Program should be carried out in a technology-neutral manner to ensure the purpose is actual energy savings to save taxpayer dollars, not meet a political agenda.    All of this is not to say, however, that innovative technologies cannot emerge from federal spending, but there is a stark difference between how successes like the Internet became commercially viable versus attempts to commercialize specific energy technologies. Government projects that have become commercial successes, such as the Internet, computer chips and GPS, were not initially intended to meet a commercial demand, but instead, national security needs. Entrepreneurs saw an opportunity and created the commercially viable products that we enjoy today. The objective for Congress and the federal government should be to fund that basic research that meets national objectives, and create the proper pathway for DOE lab researchers to push that basic research out to the market, and for the private sector to tap into that expertise at our national labs.    To conclude, America doesn't need a man-on-the-moon-style mission for energy because the government has a diverse mix of energy supplies to competitively price energy, and provide families and businesses with choice. True reforms that lay the groundwork and lay the framework for renewable energy technologies to succeed and achieves--achieve the goal that EERE sets will not come from more government spending, but instead, free market reforms that create a competitive economic environment.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Mr. Loris.    Ms. McCormick?</t>
   </si>
   <si>
-    <t>McCormick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McCormick. Thank you for the opportunity to testify today. My name is Ruth McCormick, and I am the Director of Federal and State Affairs for the Business Council for Sustainable Energy. The Council is a broad-based industry trade group, representing companies and associations in the energy efficiency, renewable energy, and natural gas industries.    Over the past several years, the United States has seen real market penetration of a wide range of sustainable energy technologies and resources, and we have witnessed the results of policies and research and development that work, but to continue the momentum of growth in these sectors, and to receive their co-benefits, long-term, stable policies will be needed to level the playing field and to provide market access. And the United States needs to continue to invest in energy research, development and demonstration to increase the efficiency of our energy generation and use, and to spur new innovations. This is important both for domestic economic growth and for U.S. competitiveness in global energy markets.    I would like to focus my testimony in two areas. First, I would like to share some of the findings from the recently released 2015 edition of the Sustainable Energy in America Fact Book. The fact book was researched and produced by Bloomberg New Energy Finance, and commissioned by the Business Council for Sustainable Energy. It is intended to be a resource for policymakers with up-to-date market information.    The second area I would like to discuss is the valuable and effective role that federal investments in the energy sector have played, and should continue to play, in the availability of new innovative energy technologies and practices.    The fact book points to the dramatic changes underway in the U.S. energy sector. The data shows that traditional energy sources are declining, and natural gas, renewable energy, and energy efficiency are on the rise. These changes are increasing the diversity of the country's energy mix, improving our energy security, cutting energy waste, increasing our energy productivity, and reducing air pollution and greenhouse gas emissions. While technology costs have fallen, market barriers and grid integration challenges continue to hinder greater use of clean energy technologies. To continue the momentum of growth, long-term, stable policies will be needed to level the playing field and to provide market access to new technologies.    Electricity markets are evolving, and the U.S. power sector, long organized around large, centralized systems, is considering distributed power options such as combined heat and power, waste heat to power, small scale renewables, and fuel cells. Other changes are also occurring in the U.S. energy sector, including the introduction of smart grid technologies for improving grid management, and a growing role for dispatchable resources such as natural gas plants, hydropower, and demand response.    Many market structures do not yet fully recognize the benefits of some of the technologies, such as energy storage, or best practices, which allow for increased flexibility of the grid. For this reason, BCSE strongly supports the continued funding of basic and applied research for clean energy technologies. This must be balanced with work on commercialization, market transformation, and other efforts to ensure that products do not sit on laboratory or university shelves, but are transferred to the private sector to achieve the intended public benefit.    There are strong analytical findings that show the overall return on federal investments in this area. For example, 3 decades of investment in extraction of natural gas from shale has led to low natural gas prices, saving households and businesses money, attracting new industrial manufacturing opportunities in the United States, and helping to create U.S. jobs. As a result of energy efficiency policies and investments, total energy use in the United States is down 2.4 percent since 2007, while gross domestic product has grown eight percent. The cost of solar PV models has fallen more than 80 percent since 2007. Thirty-two percent of new electric generating capacity came from solar in 2014, and the industry now employs nearly 175,000 workers, more than tech giants Google, Apple, Facebook and Twitter combined. These are just a few examples. The energy sector involves technologies that have been transformed over the course of more than a century, and it is critical that the U.S. Government continue to invest in advancements.    Council members look forward to working with this Committee and the federal government to ensure that public investments in these sectors are highly leveraged, effective and efficient in carrying out the intended policy aims.    Thank you.</t>
   </si>
   <si>
@@ -340,9 +322,6 @@
     <t xml:space="preserve">    Chairman Weber. The gentleman yields back.    And now recognize the gentleman from Washington, Mr. Newhouse.</t>
   </si>
   <si>
-    <t>Newhouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman. Appreciate it. And thank you all for being here and helping us look at the Department's request for the budget for EERE, and a very interesting conversation.    Could I ask a question of you, Dr. Danielson? I come from the Pacific Northwest where we are blessed with--I would say a diverse mix of energy, including hydro, wind, nuclear, gas, also utilize energy efficiency. We are also a leader in modernizing our electric grid with the forward-thinking utilities and world-class research that--institutions like the University of Washington, my alma mater, Washington State, and also the Pacific Northwest National Laboratory, which all worked together to develop test beds to take research from the lab to demonstrate new innovative technologies.    The Secretary appeared before us, I believe it was in February. He discussed the DOE's grid modernization which is very much in line with what we are trying to do in the State of Washington. So could you clarify for me the EERE programs which will advance the grid modernization, and how those investments will benefit states like mine?</t>
   </si>
   <si>
@@ -376,9 +355,6 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Mr. Chairman. If we did that, it would really shorten things up, you know. So I had better get going.    I believe that the work that EERE does is critical to achieving a sustainable energy future and growing our nation's energy economy. We see that the technologies developed at EERE provide a more robust energy portfolio, reduces our impact on the environment, and enables a growing U.S. clean energy industry. So I am glad to see the 2016 budget request is doing more to support clean energy innovation and make the United States a leader in the clean energy marketplace.    So a couple of questions, I want to see how many of these I can get to about some of the things the EERE is doing. And I am going to start with a question for Dr. Danielson. We saw that Paris just temporarily had a ban on half the cars from driving, in response to smog problems. Transportation contributes to almost 1/3 of emissions in the United States. Electric vehicles can enable more environmentally friendly transportation, and at Argonne National Lab, which is in my district, they are working to develop new battery technologies that will enable cheaper, longer-range electric vehicles. Can you describe the biggest challenges to widespread use of electric vehicles, and how strong funding for EERE is helping to improve vehicle technologies?</t>
   </si>
   <si>
@@ -412,9 +388,6 @@
     <t>412503</t>
   </si>
   <si>
-    <t>Thomas Massie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Massie. Thank you, Mr. Chairman.    First off, I want to let you know I drive an electric car, although I suspect the electrons providing the electromotive force this morning to get me here came by virtue of the combustion of fossil fuels. So I have a Friends of Coal license plate on my electric car. I also live in a house that has a 13 kilowatt solar array on it, and I am very interested in these things. I tell republicans that you can dislike the subsidies, I dislike the subsidies, but you shouldn't hate solar panels because they are rocks that make electricity, and that is a pretty virtuous rock.    But let me ask you about this, and I have some experience in this. Mr. Danielson, if you wanted to install another megawatt of production capacity in our country, would it be cheaper to do it in a solar form or on 100 households with 10 kilowatt arrays?</t>
   </si>
   <si>
@@ -508,9 +481,6 @@
     <t>412579</t>
   </si>
   <si>
-    <t>Marc A. Veasey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Veasey. Thank you, Mr. Chairman. I appreciate that.    And I wanted to ask about wind energy, particularly to Dr. Danielson. Dr. Danielson, you may know that in Texas, we are basically the king of wind. We have about 20 percent of the capacity nationwide coming out of our state. Most of that was done with tax credits and different things like that. Some of that was actually done when Mr. Weber and I were serving in the Texas legislature together, and so we are very proud of what it means to our economy, and would hate to see our economy, you know, wrecked by any policy that would reverse the progress that we have made in delivering wind to our state, and the--and what that has meant for the entire country.    And I wanted to ask you in particular about wind, and what sort of research that you guys are doing to make wind even more efficient. Like one of the things that I would like to see with wind, for instance, is, if you have ever been out to west Texas, you will know that it takes up a lot of space. It takes up a lot of landmass. What are we doing to make it to where wind or wind turbines can be moved in various locations, and maybe made even more efficient to deliver the same amount of capacity as they currently do?</t>
   </si>
   <si>
@@ -554,9 +524,6 @@
   </si>
   <si>
     <t>412192</t>
-  </si>
-  <si>
-    <t>Ed Perlmutter</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thank you, Mr. Chairman. And thank you to the panel for appearing today. Thank you for your testimony.    Obviously, Dr. Danielson, I just want to congratulate you at EERE and the Department of Energy for its part--its role in really reducing the cost of photovoltaics, wind turbines, biomass efforts, because I would say that I am about competition, and the more competition that we have among energy sources the better off we are going to be. And we are seeing a reduction in demand, so that may be the efficiency side of EERE. We see other sources in terms of photovoltaics, wind, biomass, fusion, nuclear, all as competitive pieces, and now we see a giant drop in the price of oil which, in the past, has been difficult for the energy sector as a whole because it wiped our domestic energy, you know, whether it was oil and gas, fossil fuels, coal, or renewables. Our renewable energy efforts, can it withstand this drop in oil prices, Dr. Danielson?</t>
@@ -1012,11 +979,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1036,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1064,11 +1027,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1088,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1114,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1142,11 +1099,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1168,11 +1123,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1192,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1220,11 +1171,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1244,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1272,11 +1219,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1296,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1324,11 +1267,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1350,11 +1291,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1374,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1402,11 +1339,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1426,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1454,11 +1387,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1478,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1506,11 +1435,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1530,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1558,11 +1483,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1582,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1610,11 +1531,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1634,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1662,11 +1579,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1686,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1714,11 +1627,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1738,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1766,11 +1675,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1792,11 +1699,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1816,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1842,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1868,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1894,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1920,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1946,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1972,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1998,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2024,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2050,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2076,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2102,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2128,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2154,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2180,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2206,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2232,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2258,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2284,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2310,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2336,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2362,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2388,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2414,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2440,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2466,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2492,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2518,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2544,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2570,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2596,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2622,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2648,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2674,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2700,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2726,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2752,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2778,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2804,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2830,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2856,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2882,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2908,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2934,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2960,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2986,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3012,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3038,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3064,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3090,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3116,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3142,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3168,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3194,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3220,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3248,11 +3043,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3272,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>108</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3298,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3324,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>108</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3350,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3376,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>108</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3402,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3428,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
         <v>108</v>
-      </c>
-      <c r="H95" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3454,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3480,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>108</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3508,11 +3283,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3532,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>119</v>
-      </c>
-      <c r="G99" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3558,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3584,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
-      </c>
-      <c r="G101" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3610,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3636,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3664,11 +3427,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3688,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
+        <v>112</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
         <v>119</v>
-      </c>
-      <c r="G105" t="s">
-        <v>120</v>
-      </c>
-      <c r="H105" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3716,11 +3475,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3740,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
-      </c>
-      <c r="G107" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3768,11 +3523,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3792,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>131</v>
-      </c>
-      <c r="G109" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3818,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3844,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>131</v>
-      </c>
-      <c r="G111" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3870,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3896,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>131</v>
-      </c>
-      <c r="G113" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3922,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3948,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>131</v>
-      </c>
-      <c r="G115" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3974,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4000,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>131</v>
-      </c>
-      <c r="G117" t="s">
+        <v>123</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
         <v>132</v>
-      </c>
-      <c r="H117" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4026,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4052,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>131</v>
-      </c>
-      <c r="G119" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4078,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4104,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>131</v>
-      </c>
-      <c r="G121" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4130,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4156,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>131</v>
-      </c>
-      <c r="G123" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4182,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4208,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>131</v>
-      </c>
-      <c r="G125" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4234,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4260,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>131</v>
-      </c>
-      <c r="G127" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4286,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4312,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>131</v>
-      </c>
-      <c r="G129" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4338,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4364,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>131</v>
-      </c>
-      <c r="G131" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4390,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4416,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>131</v>
-      </c>
-      <c r="G133" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4442,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4468,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>131</v>
-      </c>
-      <c r="G135" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4494,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4520,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>131</v>
-      </c>
-      <c r="G137" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4546,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4572,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>131</v>
-      </c>
-      <c r="G139" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4600,11 +4291,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4624,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>163</v>
-      </c>
-      <c r="G141" t="s">
-        <v>164</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4650,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>24</v>
-      </c>
-      <c r="G142" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4676,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>163</v>
-      </c>
-      <c r="G143" t="s">
-        <v>164</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4702,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>24</v>
-      </c>
-      <c r="G144" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4728,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>163</v>
-      </c>
-      <c r="G145" t="s">
-        <v>164</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4754,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>24</v>
-      </c>
-      <c r="G146" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4780,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>163</v>
-      </c>
-      <c r="G147" t="s">
-        <v>164</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4808,11 +4483,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4832,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
+        <v>154</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
         <v>163</v>
-      </c>
-      <c r="G149" t="s">
-        <v>164</v>
-      </c>
-      <c r="H149" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4860,11 +4531,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4884,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>163</v>
-      </c>
-      <c r="G151" t="s">
-        <v>164</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4912,11 +4579,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4936,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>163</v>
-      </c>
-      <c r="G153" t="s">
-        <v>164</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4964,11 +4627,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4988,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>179</v>
-      </c>
-      <c r="G155" t="s">
-        <v>180</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5014,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>24</v>
-      </c>
-      <c r="G156" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5040,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>179</v>
-      </c>
-      <c r="G157" t="s">
-        <v>180</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5066,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>24</v>
-      </c>
-      <c r="G158" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5092,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>179</v>
-      </c>
-      <c r="G159" t="s">
-        <v>180</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5118,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>24</v>
-      </c>
-      <c r="G160" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5144,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>24</v>
-      </c>
-      <c r="G161" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5170,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>24</v>
-      </c>
-      <c r="G162" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5196,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>179</v>
-      </c>
-      <c r="G163" t="s">
-        <v>180</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5222,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
+        <v>169</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
         <v>179</v>
-      </c>
-      <c r="G164" t="s">
-        <v>180</v>
-      </c>
-      <c r="H164" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5248,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>24</v>
-      </c>
-      <c r="G165" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5274,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>179</v>
-      </c>
-      <c r="G166" t="s">
-        <v>180</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5300,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>179</v>
-      </c>
-      <c r="G167" t="s">
-        <v>180</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5326,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>179</v>
-      </c>
-      <c r="G168" t="s">
-        <v>180</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5352,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>179</v>
-      </c>
-      <c r="G169" t="s">
-        <v>180</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5378,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>179</v>
-      </c>
-      <c r="G170" t="s">
-        <v>180</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5404,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>179</v>
-      </c>
-      <c r="G171" t="s">
-        <v>180</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5430,13 +5057,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>179</v>
-      </c>
-      <c r="G172" t="s">
-        <v>180</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5458,11 +5083,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93889.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93889.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Weber. Subcommittee on Energy will come to order. Without objection, the Chair is authorized to declare recesses of this Subcommittee at any time.    Welcome to today's hearing titled ``Department of Energy Oversight: Office of Energy Efficiency and Renewable Energy.''    I recognize myself for five minutes for an opening statement.    Good afternoon, and as I have already said, welcome to today's Energy Subcommittee hearing. We are going to examine the Department of Energy's Office of Energy Efficiency and Renewable Energy, or EERE. Today, we will hear from the Department and a broad panel of expert witnesses on the value of the research, development, demonstration, and commercialization activities in EERE, and the impact DOE's clean energy programs have on the energy market and the United States economy.    EERE is the lead federal agency for clean energy research and development, with programs in transportation, renewable energy, and energy efficiency. This office is clearly a top priority for the Obama Administration, with this year's budget request coming in at $2.7 billion, which is an increase of over $800 million from enacted levels. That is a whopping 42 percent increase in one year. With our national debt at $18 trillion and rising, and mandatory spending caps guiding budgets on everything from energy to national defense, this kind of spending obviously deserves rigorous oversight from Congress. It is clear that EERE's budget is simply unaffordable. While every other federal program has had to adjust to spending caps and work within modest spending goals, EERE's budget has continued to increase. Despite a budget that has already grown by 58 percent in the last decade, and received over $16 billion, with a B, in stimulus funds, the Obama Administration continues to request more year after year. It is time to adjust EERE's budget to reality. By continuing to grow EERE spending, the Department of Energy's approach to energy research and development has also become more and more unbalanced. EERE's budget dwarfs that of the other applied offices at DOE. The $2.7 billion budget request for fiscal year 2016 is more than four times the budget request for fossil energy R&amp;D, five times the request for nuclear energy R&amp;D, and 16 times the request for electricity and energy reliability R&amp;D. In fact, the proposed budget for EERE is more than double the budgets for nuclear, fossil, and electricity R&amp;D combined.    Finally, the work prioritized by EERE is far too focused on increasing the use of today's technology, not conducting the fundamental research to lay the foundation for the next technology breakthrough. Many EERE programs are focused on reducing market barriers for existing technology or funding R&amp;D activities already prioritized by the private sector. For example, in EERE's Vehicle Technologies program, $40 million is requested for ``cost-share projects within--with industry'' within the ``SuperTruck 2'' initiative. Funding for SuperTruck 2 is intended to improve the hauling efficiency of heavy-duty, Class 8 long-haul vehicles by 100 percent by the year 2020. But the freight industry and auto manufacturers, both billion dollar industries, already have the means and motivation to develop innovative technology to increase energy efficiency. Investing in technology to decrease costs is just good business sense, and American industry does this every day, with or without federal funds. And I might add, on the trucking freight business, I used to do some freight hauling as one of my businesses. Unless you can decrease the weight of a pound, we are in for a long wait.    Instead of duplicating work that could be done in the private sector, the Department should prioritize basic research and development with broad application to all forms of energy, and energy efficiency. Models developed in the Office of Science's ASCR program, the subject of an Energy Subcommittee hearing earlier this year, can be used to study and improve techniques in manufacturing, renewable power, and energy efficiency, enabling the private sector to develop and bring new technology into the market without American tax dollars.    I want to thank Assistant Secretary Danielson and all our witnesses for testifying to the Committee today, and I look forward to a review of EERE's programs and a discussion about the impact DOE's clean energy programs have on the economy. As some of our witnesses will point out today, subsidizing one form of energy over another through federal programs is damaging to the energy market, it increases costs for the American people, and actually is often counterproductive to new the technology development. Investment in the next generation of energy technology must be balanced, technology-neutral, and responsible. By funding basic research and development, the Department of Energy could build a foundation for the private sector to bring new innovative technologies to market, and to grow the American economy.    With that, I yield back. And, Mr. Grayson, you are recognized.</t>
   </si>
   <si>
     <t>412276</t>
   </si>
   <si>
+    <t>Grayson</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grayson. Thank you, Chairman Weber, for holding this hearing. And thank you to our witnesses for appearing here today.    America is mired in a long-term negative energy trade balance. According to the most recent figures from the Energy Information Administration, our energy trade deficit as of the fourth quarter of 2013 was $203 billion, and it has been that way literally for decades. We must import to make up the difference, and the question is how much longer are we going to be able to spend our fortune that way.    Every year for the past two generations, energy imports have cost us hundreds of billions of dollars. Unfortunately, there are also massive hidden costs that aren't reflected in the prices that Americans actually pay for energy. One recent study estimates that the United States has spent about $8 trillion from 1976 through 2010, merely defending access to oil supplies in the Persian Gulf, not producing, not acquiring, not even transporting, but simply defending our access to oil. That is $25,000 for every man, woman and child in America. Continuing to pursue a business-as-usual energy policy clearly costs not only American dollars, but also American lives. We can't just drill our way out of that problem.    Because the price of oil is set globally, a disruption of oil from the Middle East could severely spike U.S. oil prices no matter how much of it we are able to pull from our own ground. That is why reducing dependence on oil, and not just foreign oil, is a key strategic objective for both the United States economy and the U.S. Military. We can and we must end this strategic energy deficit. We can create a domestic energy infrastructure that is reliable, resilient and far less dependent on volatile regions around the world.    Towards these ends, the Department of Energy's Office of Energy Efficiency and Renewable Energy, which we are here to talk about today, helps to make that future come faster. Their sustainable transportation technology program focuses on improving energy efficiency in vehicles, and developing new alternative fuels from domestic resources. Research investments made by this program have reduced electric vehicle battery costs by 70 percent since 2008. They have also reduced the manufacturing costs for automotive fuel cells by more than 50 percent just since 2006. Research and development in biofuels has helped to reduce the production cost of cellulosic ethanol by more than $6 a gallon, to around $3.20 per gallon today, making it cost-competitive with gasoline.    Beyond reducing our dependence on oil, these programs improve energy efficiency in buildings and appliances, and they are providing major economic and environmental benefits to U.S. taxpayers as well. Efficiency standards enacted by the Department of Energy since 2009 are projected to save consumers hundreds of billions of dollars in their utility bills through 2030, and this agency-supported research in advanced lighting technology has helped to reduce LED costs by 90 percent since 2008. The renewable energy sector has also benefitted immensely from the agency-supported research and development. Since 2010, photovoltaic systems costs have been cut in half. DOE's SunShot Program, which has the goal of making solar energy costs competitive with conventional sources by 2020, is already more than 60 percent of the way to achieving that cost target. Overall, third party evaluators outside of the government estimate that from 1976 to 2008, these investments of $15 billion have resulted in an estimated economic benefit to the United States of $388 billion, a net return of more than 24 to 1. That is a very impressive track record, whether it is in government or in business, and it is one that we should continue to support.    Private investors in the energy sector are beginning to move from project-level loans to holding company loans, which means renewable energy industries may be starting at long last to take off. This development is encouraging, but we must realize that there is no Exxon Mobil, or for that matter, an Intel or a Pfizer in the renewable energy sector. There is no one with the capability to spend billions on research that the government is spending now. There remains a unique government role in supporting the advancement of new technologies at a sufficient pace to meet our national economic, environmental and energy security needs. And that is why I look forward to this hearing to hear more about that today.    The results from this agency's programs are tangible. They are having a direct positive impact on peoples' lives and, therefore, I want to thank Dr. Danielson and his office for their productive work, and for the information that they provide for us here today. And thank you again, Mr. Chairman.    And with that, I yield the balance of my time.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman.    Today, the Subcommittee on Energy will examine the Department of Energy's Office of Energy Efficiency and Renewable Energy, commonly referred to as EERE. The Department describes EERE as, ``The U.S. Government's primary clean energy technology organization.'' EERE's goals sound worthy enough. It seeks to reduce the use of fossil fuels, lower emissions, and speed up the adoption and decrease the cost of clean energy technology in transportation, renewable power and energy efficiency. However, while the EERE is billed as leading clean energy research and development, there are fundamental concerns with EERE's approach to advancing energy technology. EERE's activities demonstrate that it is heavily invested in forcing the Administration's preferred technology on the American people. When the government picks winners and losers in the energy technology marketplace, the American people pay the price.    The Solar Energy Technologies Program within EERE offers a ready example. This program's goal is to reduce the cost of solar power until they are cost-competitive with electricity from fossil fuels. It aims to achieve this goal by 2020. But because the program is focused on cost, not technology, EERE spends taxpayer dollars to market and deploy existing solar technology. Instead of research on the fundamental science behind solar energy, or development of new solar technology, EERE spends taxpayer dollars on ``permitting, financing, and customer acquisition.'' It essentially puts promoting energy companies over research and development. Addressing these issues may help the solar industry market their product, but that is short-sighted and doesn't really make solar energy more competitive in the long term.    The Department of Energy should perform groundbreaking scientific research and develop on new technologies, not spend American tax dollars to promote what is already commercially available. The federal government should invest in basic research that could open the door for widespread use of solar and other renewable energy technology in the future. For example, energy storage research and development at the Joint Center for Energy Storage Research hub in the Office of Science explores new energy storage possibilities through basic scientific research. This energy storage research could have a groundbreaking impact not just on the solar industry, but also on all forms of energy.    The President's budget proposal for EERE includes a 42 percent, or $809 million, increase in spending. This is almost three times the requested increase for the Office of Science. In Congress, we have the responsibility to ensure the efficient and effective use of American tax dollars. We can't afford to impose expensive and inefficient technology on the energy market. We do not have unlimited resources, so we will have to make choices about where to make the best investment for the American people. By investing in basic research that benefits all forms of energy, we can make energy less expensive, and that benefits consumers and helps the United States achieve energy independence.</t>
   </si>
   <si>
@@ -82,18 +103,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Danielson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Danielson. Thank you, Chairman. Chairman Smith, Chairman Weber, Ranking Member Grayson, and distinguished Members of the Subcommittee, thank you for the opportunity to appear before you today to discuss the Office of Energy Efficiency and Renewable Energy, EERE, at the U.S. Department of Energy.    EERE supports cutting-edge American innovation to dramatically reduce U.S. reliance on foreign oil, cut energy costs for American families and businesses, avoid the damaging economic and health impacts of energy-related pollution, and enable the U.S. private sector to create good-paying American jobs through innovation. EERE's efforts in three critical energy sectors--sustainable transportation, renewable power, and energy efficiency--supportthe research, development and demonstration activities that are needed to make clean energy technologies directly cost-competitive without subsidies.    While clean energy markets grew to approximately $300 billion globally last year, with trillions more in market opportunity in the years ahead, the energy industry significantly underinvested in R&amp;D compared to other industries. The strategic importance of energy to American economic growth and security means that government has a necessary and needed role to make the appropriate investments in cutting-edge energy innovation to seize this clean energy opportunity.    My experience as an MIT-trained scientist and engineer, a venture capitalist in the energy sector, and as one of the founders of ARPA-E, has given me unique insights into what is required for the U.S. energy innovation ecosystem to be successful. From this experience, I have developed five core questions that serve as the guiding principles by which EERE prioritizes its investments in energy innovation. These questions include the following. One: Impact. Is this a high-impact problem? Two: Additionality. Will EERE funding make a large difference relative to investments being made by the private sector? Three: Openness. Are we open to new ideas, and the most promising new energy innovations? Four: Economic benefit. Will EERE funding result in enduring U.S. economic impact? And five: Proper role of government. Is this investment a proper role of government, or something best left to the private sector to do on its own?    EERE has shown that smart, targeted investments in clean energy innovation can have a healthy return on investment for taxpayers. As just one example of many, over a 30-year period, EERE funded R&amp;D on advanced combustion engines resulted in a net benefit of about $70 billion, representing a benefit-to-cost ratio of 53 to 1, at a seven percent discount rate.    In terms of our fiscal year 2016 budget request, in fiscal year 2016, EERE is requesting from Congress $2.7 billion across our three sectors to continue these successes, and to enable the United States to remain a global leader in innovative new clean energy technologies. The $793 million request for our sustainable transportation portfolio would help consumers and businesses use less energy to move business and freight, and replace conventional fuels with cost-competitive, domestically-produced, sustainable alternative fuels. And we are making significant progress. In 2014, the five-year SuperTruck program exceeded its goal of developing a suite of cutting-edge new long-haul trucking technologies to enable a 50 percent improvement in freight efficiency one year ahead of schedule. Our fiscal year 2016 budget request will enable EERE to continue our focus on cutting-edge R&amp;D, and advanced combustion and lightweight vehicles, developing new technologies that can diversify our fuel mix with drop-in biofuels, and enabling plug-in electric and fuel cell vehicles to become cost-competitive.    In our renewable power portfolio, EERE's request of $645 million will build on our R&amp;D goal to enable the a development of multiple cost-effective renewable power technology options for every region of the country to diversify our power sector. Our fiscal year 2016 request will continue our SunShot Initiative's progress in making solar energy directly cost-competitive by 2020. Our request will also support the Frontier Observatory for Research in Geothermal Energy, or FORGE, a first-of-a-kind field laboratory, to address the key R&amp;D challenges required to enable cost-effective advanced geothermal power, in addition to continued R&amp;D efforts to reduce the cost of wind power, marine and hydrokinetic power, and hydropower.    Finally, in our energy efficiency portfolio, EERE's request of $1.03 billion emphasizes cutting-edge R&amp;D and next-generation efficient building technologies, including high-efficiency, low-cost heating and cooling technologies. We will also increase support for next-generation manufacturing R&amp;D to lower energy costs for American manufacturers, and create American leadership in the next generation of emerging energy-related advanced manufacturing technologies.    As just one example of these advanced manufacturing technology R&amp;D investments, in January we launched the Institute for Advanced Composites Manufacturing Innovation, a public-private consortium of 122 leading U.S. manufacturers and research organizations that will focus on advanced composites, foundational materials that are three times as strong and twice as light as the lightest metals.    As EERE invests in high-impact research, development and demonstration programs to make clean energy solutions more affordable, accessible, and reliable, we remain fiercely committed to being a good steward of taxpayer investments. Over the past two years, EERE has implemented a new active project management approach under which we hold all of our projects accountable to annual go/no-go milestones, and under which we are more aggressively discontinuing projects that are not achieving key milestones to protect taxpayer interests.    In closing, EERE looks forward to working with this Committee to make necessary and appropriate investments in clean energy innovation, to continue to make our organization effective and accountable to Congress and to taxpayers, and to ensure that the United States wins the global clean energy race.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Dr. Danielson.    Mr. Loris, you are recognized for five minutes.</t>
   </si>
   <si>
+    <t>Loris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loris. Thank you. Chairman Weber, Ranking Member Grayson, and distinguished Members of the Subcommittee, thank you for this opportunity to discuss the Department of Energy's Office of Energy Efficiency and Renewable Energy.    My name is Nick Loris, and I am the Herbert and Joyce Morgan Fellow at the Heritage Foundation. The views I express in this testimony are my own, and should not be construed as representing any official position of the Heritage Foundation.    Often overlooked in the criticism of policies that pick winners and losers in energy markets is the proper scrutiny of all the spending programs within EERE. The given logic for many of these initiatives is that a gap exists between basic research and economic viability, and thus, more taxpayer dollars must be spent to attract private investment. The reality though is that the market demand for transportation fuel and electricity are incentive enough to spur competition and innovative breakthroughs. Globally, these are multitrillion dollar markets. If any renewable technology captures a mere slice of that market, it would stand to make billions, if not tens of billions of dollars in profit annually. Breaking into this market is not a problem of the so-called valley of death where good ideas are unable to attract substantial investment. It is a valley of wealth waiting to be had.    The objectives of this office may be laudable, but it is simply not the role of the Federal Government to reduce cost and lower risk. When the government attempts to drive commercialization, it circumvents the competitive process that appropriately assigns risk and reward, and disregards how markets efficiently allocate resources. Take, for instance, the bioenergy technologies program that aims to make advanced biofuels cost-competitive with conventional gasoline at $3 per gallon. Why is that an objective in the first place, and how does the government know that $3 will be the magic price point at which alternative fuels become competitive? As we all know, markets are very unpredictable. And even if somehow $3 does change the market for alternative fuels, businesses are much better equipped and flexible to deal with the changing economic circumstances. Most importantly, the private sector should be responsible for taking on that risk and innovating to lower costs.    The same holds true for the electricity sector. For instance, the budget justification for the SunShot initiative states a goal of reducing the price for utility scale solar to 6 cents per kilowatt hour without subsidies, and that will result in rapid, large-scale adoption of solar across the United States. The problem is that the SunShot initiative in and of itself is a huge government subsidy by spending hundreds of millions of taxpayer dollars to reduce the cost of solar. And if 6 cents per kilowatt hour results in rapid solar deployment, that is great, but that should be a business decision. Government has no business trying to make projects cost-competitive or improving a technology's reliability to make it more enticing for private financiers. Furthermore, the government is not very good at it, compared to those industries that actually have skin in the game. How many times have we heard from the DOE that an economically viable alternative energy source was just around the corner, and decades later and billions of taxpayer dollars squandered, the technology is still just around that corner.    Another goal for this office is improving energy efficiency. Programs like the Advanced Manufacturing Office sound nice and like an easy sell to constituents, but manufacturers already know that energy is a significant cost, and will find ways to reduce energy consumption in order to gain a competitive advantage. Companies will make these investments if they believe the technology is promising, worth the risk, and the best use of their investment dollars.    Instead, the Advanced Manufacturing Office provides nothing more than corporate welfare. For instance, past grant recipients have been some of the world's largest companies and massive energy users, including GE, Dow Chemical, and Boeing. These are not companies that need help from the taxpayer.    Now, when it comes to energy efficiency, one area that makes more sense as a government function is to reduce energy use within the federal government. The government as an energy consumer does not face the same incentive structure, nor do they always weigh trade-offs like families and businesses do. But the Federal Energy Management Program should be carried out in a technology-neutral manner to ensure the purpose is actual energy savings to save taxpayer dollars, not meet a political agenda.    All of this is not to say, however, that innovative technologies cannot emerge from federal spending, but there is a stark difference between how successes like the Internet became commercially viable versus attempts to commercialize specific energy technologies. Government projects that have become commercial successes, such as the Internet, computer chips and GPS, were not initially intended to meet a commercial demand, but instead, national security needs. Entrepreneurs saw an opportunity and created the commercially viable products that we enjoy today. The objective for Congress and the federal government should be to fund that basic research that meets national objectives, and create the proper pathway for DOE lab researchers to push that basic research out to the market, and for the private sector to tap into that expertise at our national labs.    To conclude, America doesn't need a man-on-the-moon-style mission for energy because the government has a diverse mix of energy supplies to competitively price energy, and provide families and businesses with choice. True reforms that lay the groundwork and lay the framework for renewable energy technologies to succeed and achieves--achieve the goal that EERE sets will not come from more government spending, but instead, free market reforms that create a competitive economic environment.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Mr. Loris.    Ms. McCormick?</t>
   </si>
   <si>
+    <t>McCormick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McCormick. Thank you for the opportunity to testify today. My name is Ruth McCormick, and I am the Director of Federal and State Affairs for the Business Council for Sustainable Energy. The Council is a broad-based industry trade group, representing companies and associations in the energy efficiency, renewable energy, and natural gas industries.    Over the past several years, the United States has seen real market penetration of a wide range of sustainable energy technologies and resources, and we have witnessed the results of policies and research and development that work, but to continue the momentum of growth in these sectors, and to receive their co-benefits, long-term, stable policies will be needed to level the playing field and to provide market access. And the United States needs to continue to invest in energy research, development and demonstration to increase the efficiency of our energy generation and use, and to spur new innovations. This is important both for domestic economic growth and for U.S. competitiveness in global energy markets.    I would like to focus my testimony in two areas. First, I would like to share some of the findings from the recently released 2015 edition of the Sustainable Energy in America Fact Book. The fact book was researched and produced by Bloomberg New Energy Finance, and commissioned by the Business Council for Sustainable Energy. It is intended to be a resource for policymakers with up-to-date market information.    The second area I would like to discuss is the valuable and effective role that federal investments in the energy sector have played, and should continue to play, in the availability of new innovative energy technologies and practices.    The fact book points to the dramatic changes underway in the U.S. energy sector. The data shows that traditional energy sources are declining, and natural gas, renewable energy, and energy efficiency are on the rise. These changes are increasing the diversity of the country's energy mix, improving our energy security, cutting energy waste, increasing our energy productivity, and reducing air pollution and greenhouse gas emissions. While technology costs have fallen, market barriers and grid integration challenges continue to hinder greater use of clean energy technologies. To continue the momentum of growth, long-term, stable policies will be needed to level the playing field and to provide market access to new technologies.    Electricity markets are evolving, and the U.S. power sector, long organized around large, centralized systems, is considering distributed power options such as combined heat and power, waste heat to power, small scale renewables, and fuel cells. Other changes are also occurring in the U.S. energy sector, including the introduction of smart grid technologies for improving grid management, and a growing role for dispatchable resources such as natural gas plants, hydropower, and demand response.    Many market structures do not yet fully recognize the benefits of some of the technologies, such as energy storage, or best practices, which allow for increased flexibility of the grid. For this reason, BCSE strongly supports the continued funding of basic and applied research for clean energy technologies. This must be balanced with work on commercialization, market transformation, and other efforts to ensure that products do not sit on laboratory or university shelves, but are transferred to the private sector to achieve the intended public benefit.    There are strong analytical findings that show the overall return on federal investments in this area. For example, 3 decades of investment in extraction of natural gas from shale has led to low natural gas prices, saving households and businesses money, attracting new industrial manufacturing opportunities in the United States, and helping to create U.S. jobs. As a result of energy efficiency policies and investments, total energy use in the United States is down 2.4 percent since 2007, while gross domestic product has grown eight percent. The cost of solar PV models has fallen more than 80 percent since 2007. Thirty-two percent of new electric generating capacity came from solar in 2014, and the industry now employs nearly 175,000 workers, more than tech giants Google, Apple, Facebook and Twitter combined. These are just a few examples. The energy sector involves technologies that have been transformed over the course of more than a century, and it is critical that the U.S. Government continue to invest in advancements.    Council members look forward to working with this Committee and the federal government to ensure that public investments in these sectors are highly leveraged, effective and efficient in carrying out the intended policy aims.    Thank you.</t>
   </si>
   <si>
@@ -322,6 +352,9 @@
     <t xml:space="preserve">    Chairman Weber. The gentleman yields back.    And now recognize the gentleman from Washington, Mr. Newhouse.</t>
   </si>
   <si>
+    <t>Newhouse</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman. Appreciate it. And thank you all for being here and helping us look at the Department's request for the budget for EERE, and a very interesting conversation.    Could I ask a question of you, Dr. Danielson? I come from the Pacific Northwest where we are blessed with--I would say a diverse mix of energy, including hydro, wind, nuclear, gas, also utilize energy efficiency. We are also a leader in modernizing our electric grid with the forward-thinking utilities and world-class research that--institutions like the University of Washington, my alma mater, Washington State, and also the Pacific Northwest National Laboratory, which all worked together to develop test beds to take research from the lab to demonstrate new innovative technologies.    The Secretary appeared before us, I believe it was in February. He discussed the DOE's grid modernization which is very much in line with what we are trying to do in the State of Washington. So could you clarify for me the EERE programs which will advance the grid modernization, and how those investments will benefit states like mine?</t>
   </si>
   <si>
@@ -355,6 +388,12 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Mr. Chairman. If we did that, it would really shorten things up, you know. So I had better get going.    I believe that the work that EERE does is critical to achieving a sustainable energy future and growing our nation's energy economy. We see that the technologies developed at EERE provide a more robust energy portfolio, reduces our impact on the environment, and enables a growing U.S. clean energy industry. So I am glad to see the 2016 budget request is doing more to support clean energy innovation and make the United States a leader in the clean energy marketplace.    So a couple of questions, I want to see how many of these I can get to about some of the things the EERE is doing. And I am going to start with a question for Dr. Danielson. We saw that Paris just temporarily had a ban on half the cars from driving, in response to smog problems. Transportation contributes to almost 1/3 of emissions in the United States. Electric vehicles can enable more environmentally friendly transportation, and at Argonne National Lab, which is in my district, they are working to develop new battery technologies that will enable cheaper, longer-range electric vehicles. Can you describe the biggest challenges to widespread use of electric vehicles, and how strong funding for EERE is helping to improve vehicle technologies?</t>
   </si>
   <si>
@@ -388,6 +427,12 @@
     <t>412503</t>
   </si>
   <si>
+    <t>Massie</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Massie. Thank you, Mr. Chairman.    First off, I want to let you know I drive an electric car, although I suspect the electrons providing the electromotive force this morning to get me here came by virtue of the combustion of fossil fuels. So I have a Friends of Coal license plate on my electric car. I also live in a house that has a 13 kilowatt solar array on it, and I am very interested in these things. I tell republicans that you can dislike the subsidies, I dislike the subsidies, but you shouldn't hate solar panels because they are rocks that make electricity, and that is a pretty virtuous rock.    But let me ask you about this, and I have some experience in this. Mr. Danielson, if you wanted to install another megawatt of production capacity in our country, would it be cheaper to do it in a solar form or on 100 households with 10 kilowatt arrays?</t>
   </si>
   <si>
@@ -481,6 +526,12 @@
     <t>412579</t>
   </si>
   <si>
+    <t>Veasey</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Veasey. Thank you, Mr. Chairman. I appreciate that.    And I wanted to ask about wind energy, particularly to Dr. Danielson. Dr. Danielson, you may know that in Texas, we are basically the king of wind. We have about 20 percent of the capacity nationwide coming out of our state. Most of that was done with tax credits and different things like that. Some of that was actually done when Mr. Weber and I were serving in the Texas legislature together, and so we are very proud of what it means to our economy, and would hate to see our economy, you know, wrecked by any policy that would reverse the progress that we have made in delivering wind to our state, and the--and what that has meant for the entire country.    And I wanted to ask you in particular about wind, and what sort of research that you guys are doing to make wind even more efficient. Like one of the things that I would like to see with wind, for instance, is, if you have ever been out to west Texas, you will know that it takes up a lot of space. It takes up a lot of landmass. What are we doing to make it to where wind or wind turbines can be moved in various locations, and maybe made even more efficient to deliver the same amount of capacity as they currently do?</t>
   </si>
   <si>
@@ -524,6 +575,12 @@
   </si>
   <si>
     <t>412192</t>
+  </si>
+  <si>
+    <t>Perlmutter</t>
+  </si>
+  <si>
+    <t>Ed</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thank you, Mr. Chairman. And thank you to the panel for appearing today. Thank you for your testimony.    Obviously, Dr. Danielson, I just want to congratulate you at EERE and the Department of Energy for its part--its role in really reducing the cost of photovoltaics, wind turbines, biomass efforts, because I would say that I am about competition, and the more competition that we have among energy sources the better off we are going to be. And we are seeing a reduction in demand, so that may be the efficiency side of EERE. We see other sources in terms of photovoltaics, wind, biomass, fusion, nuclear, all as competitive pieces, and now we see a giant drop in the price of oil which, in the past, has been difficult for the energy sector as a whole because it wiped our domestic energy, you know, whether it was oil and gas, fossil fuels, coal, or renewables. Our renewable energy efforts, can it withstand this drop in oil prices, Dr. Danielson?</t>
@@ -929,7 +986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,7 +994,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,4133 +1016,4874 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
       <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
       <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
       <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G84" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G89" t="s">
+        <v>112</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G90" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G91" t="s">
+        <v>112</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G93" t="s">
+        <v>112</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G94" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G95" t="s">
+        <v>112</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G96" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G97" t="s">
+        <v>112</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>112</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G99" t="s">
+        <v>124</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>112</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G101" t="s">
+        <v>124</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G102" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>112</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G103" t="s">
+        <v>124</v>
+      </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G105" t="s">
+        <v>124</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>112</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G107" t="s">
+        <v>124</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>123</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G109" t="s">
+        <v>137</v>
+      </c>
       <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G110" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>123</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G111" t="s">
+        <v>137</v>
+      </c>
       <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G112" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>123</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G113" t="s">
+        <v>137</v>
+      </c>
       <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G114" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>123</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G115" t="s">
+        <v>137</v>
+      </c>
       <c r="H115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>123</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G117" t="s">
+        <v>137</v>
+      </c>
       <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G118" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>123</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G119" t="s">
+        <v>137</v>
+      </c>
       <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>123</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G121" t="s">
+        <v>137</v>
+      </c>
       <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G122" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>123</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G123" t="s">
+        <v>137</v>
+      </c>
       <c r="H123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G124" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>123</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G125" t="s">
+        <v>137</v>
+      </c>
       <c r="H125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G126" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>123</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G127" t="s">
+        <v>137</v>
+      </c>
       <c r="H127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I127" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G128" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>123</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G129" t="s">
+        <v>137</v>
+      </c>
       <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G130" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>123</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G131" t="s">
+        <v>137</v>
+      </c>
       <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G132" t="s">
+        <v>29</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>123</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G133" t="s">
+        <v>137</v>
+      </c>
       <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G134" t="s">
+        <v>29</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>123</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G135" t="s">
+        <v>137</v>
+      </c>
       <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G136" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>123</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G137" t="s">
+        <v>137</v>
+      </c>
       <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G138" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>123</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G139" t="s">
+        <v>137</v>
+      </c>
       <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I139" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>154</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G141" t="s">
+        <v>170</v>
+      </c>
       <c r="H141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G142" t="s">
+        <v>29</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>154</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G143" t="s">
+        <v>170</v>
+      </c>
       <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>154</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G145" t="s">
+        <v>170</v>
+      </c>
       <c r="H145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I145" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G146" t="s">
+        <v>35</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>154</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G147" t="s">
+        <v>170</v>
+      </c>
       <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>154</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G149" t="s">
+        <v>170</v>
+      </c>
       <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
       <c r="H150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>154</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G151" t="s">
+        <v>170</v>
+      </c>
       <c r="H151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I151" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>154</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G153" t="s">
+        <v>170</v>
+      </c>
       <c r="H153" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I153" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>169</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G155" t="s">
+        <v>187</v>
+      </c>
       <c r="H155" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I155" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>21</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G156" t="s">
+        <v>29</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>169</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G157" t="s">
+        <v>187</v>
+      </c>
       <c r="H157" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I157" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>169</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G159" t="s">
+        <v>187</v>
+      </c>
       <c r="H159" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I159" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G160" t="s">
+        <v>32</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G161" t="s">
+        <v>32</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G162" t="s">
+        <v>32</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>169</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G163" t="s">
+        <v>187</v>
+      </c>
       <c r="H163" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I163" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>169</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G164" t="s">
+        <v>187</v>
+      </c>
       <c r="H164" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I164" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G165" t="s">
+        <v>32</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>169</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G166" t="s">
+        <v>187</v>
+      </c>
       <c r="H166" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I166" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>169</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G167" t="s">
+        <v>187</v>
+      </c>
       <c r="H167" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I167" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>169</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G168" t="s">
+        <v>187</v>
+      </c>
       <c r="H168" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I168" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>169</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G169" t="s">
+        <v>187</v>
+      </c>
       <c r="H169" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I169" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>169</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G170" t="s">
+        <v>187</v>
+      </c>
       <c r="H170" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I170" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>169</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G171" t="s">
+        <v>187</v>
+      </c>
       <c r="H171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I171" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>169</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G172" t="s">
+        <v>187</v>
+      </c>
       <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
       <c r="H173" t="s">
-        <v>188</v>
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93889.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93889.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Weber</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412276</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Grayson</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -386,6 +398,9 @@
   </si>
   <si>
     <t>400630</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Lipinski</t>
@@ -986,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,7 +1009,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,4871 +1034,5268 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>32</v>
       </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
         <v>32</v>
       </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" t="s">
         <v>32</v>
       </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" t="s">
         <v>32</v>
       </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" t="s">
         <v>32</v>
       </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" t="s">
         <v>32</v>
       </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" t="s">
         <v>32</v>
       </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" t="s">
         <v>32</v>
       </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" t="s">
         <v>32</v>
       </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" t="s">
         <v>32</v>
       </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" t="s">
         <v>32</v>
       </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" t="s">
         <v>32</v>
       </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" t="s">
         <v>32</v>
       </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
-      </c>
-      <c r="G80" t="s">
         <v>32</v>
       </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
-      </c>
-      <c r="G82" t="s">
         <v>32</v>
       </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I83" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84" t="s">
         <v>32</v>
       </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>36</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86" t="s">
         <v>32</v>
       </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>36</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" t="s">
-        <v>112</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>116</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
-      </c>
-      <c r="G90" t="s">
-        <v>29</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
-      </c>
-      <c r="G91" t="s">
-        <v>112</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>116</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
-      </c>
-      <c r="G92" t="s">
-        <v>29</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
-      </c>
-      <c r="G93" t="s">
-        <v>112</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>116</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" t="s">
-        <v>29</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" t="s">
-        <v>112</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>116</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
-      </c>
-      <c r="G97" t="s">
-        <v>112</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>116</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G99" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G101" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I101" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
-      </c>
-      <c r="G102" t="s">
-        <v>35</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G103" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I103" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G105" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I105" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H107" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G109" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>33</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G111" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>33</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G113" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I113" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
-      </c>
-      <c r="G114" t="s">
-        <v>29</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G115" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H115" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I115" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
-      </c>
-      <c r="G116" t="s">
-        <v>29</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>33</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G117" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" t="s">
-        <v>29</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>33</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G119" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H119" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>33</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G121" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H121" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I121" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>33</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G123" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H123" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I123" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G124" t="s">
-        <v>29</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>33</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G125" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H125" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I125" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
-      </c>
-      <c r="G126" t="s">
-        <v>29</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>33</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G127" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H127" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I127" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
-      </c>
-      <c r="G128" t="s">
-        <v>29</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>33</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G129" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H129" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I129" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
-      </c>
-      <c r="G130" t="s">
-        <v>29</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>33</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G131" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H131" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I131" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" t="s">
-        <v>29</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>33</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G133" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H133" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I133" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
-      </c>
-      <c r="G134" t="s">
-        <v>29</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>33</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G135" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H135" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I135" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
-      </c>
-      <c r="G136" t="s">
-        <v>29</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>33</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G137" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H137" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I137" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
-      </c>
-      <c r="G138" t="s">
-        <v>29</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>33</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G139" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H139" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I139" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G141" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="H141" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I141" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
-      </c>
-      <c r="G142" t="s">
-        <v>29</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>33</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G143" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I143" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
-      </c>
-      <c r="G144" t="s">
-        <v>29</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>33</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G145" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="H145" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I145" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="J145" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
-      </c>
-      <c r="G146" t="s">
-        <v>35</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>39</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G147" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="H147" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I147" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G149" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="H149" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I149" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G151" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="H151" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I151" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G153" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="H153" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I153" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G155" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="H155" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I155" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J155" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>28</v>
-      </c>
-      <c r="G156" t="s">
-        <v>29</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>33</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G157" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="H157" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I157" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J157" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>28</v>
-      </c>
-      <c r="G158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>33</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G159" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="H159" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I159" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
-      </c>
-      <c r="G160" t="s">
         <v>32</v>
       </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>36</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>28</v>
-      </c>
-      <c r="G161" t="s">
         <v>32</v>
       </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>36</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>28</v>
-      </c>
-      <c r="G162" t="s">
         <v>32</v>
       </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>36</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G163" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I163" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J163" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G164" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="H164" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I164" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J164" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>28</v>
-      </c>
-      <c r="G165" t="s">
         <v>32</v>
       </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>36</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G166" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="H166" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I166" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J166" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G167" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I167" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J167" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G168" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="H168" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I168" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J168" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G169" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="H169" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I169" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J169" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G170" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="H170" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I170" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J170" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G171" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="H171" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I171" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J171" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G172" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="H172" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I172" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J172" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I173" t="s">
-        <v>207</v>
+        <v>16</v>
+      </c>
+      <c r="J173" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
